--- a/my-app/data.xlsx
+++ b/my-app/data.xlsx
@@ -133,7 +133,7 @@
     <x:t>Yes</x:t>
   </x:si>
   <x:si>
-    <x:t>116/08/2017</x:t>
+    <x:t>16/08/2017</x:t>
   </x:si>
   <x:si>
     <x:t>No</x:t>

--- a/my-app/data.xlsx
+++ b/my-app/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="87" count="87">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73" count="73">
   <x:si>
     <x:t>_id</x:t>
   </x:si>
@@ -37,12 +37,12 @@
     <x:t>caregiver_name</x:t>
   </x:si>
   <x:si>
+    <x:t>contact</x:t>
+  </x:si>
+  <x:si>
     <x:t>residential_area</x:t>
   </x:si>
   <x:si>
-    <x:t>contact</x:t>
-  </x:si>
-  <x:si>
     <x:t>therapist_name</x:t>
   </x:si>
   <x:si>
@@ -55,10 +55,13 @@
     <x:t>phone</x:t>
   </x:si>
   <x:si>
+    <x:t>stand_serial</x:t>
+  </x:si>
+  <x:si>
     <x:t>adjustments_to_footrest</x:t>
   </x:si>
   <x:si>
-    <x:t>nipple_to_heel</x:t>
+    <x:t>footrest_height</x:t>
   </x:si>
   <x:si>
     <x:t>buttocks_cushion_size</x:t>
@@ -70,25 +73,19 @@
     <x:t>date</x:t>
   </x:si>
   <x:si>
+    <x:t>ordered</x:t>
+  </x:si>
+  <x:si>
     <x:t>recieved</x:t>
   </x:si>
   <x:si>
-    <x:t>footrest_height</x:t>
-  </x:si>
-  <x:si>
-    <x:t>stand_serial</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ordered</x:t>
-  </x:si>
-  <x:si>
-    <x:t>59903c2a5729bb20743fafec</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ntombi Kakarot</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17/05/2000</x:t>
+    <x:t>59935aec6a299b12c0d39572</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Star Fire</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17/12/2004</x:t>
   </x:si>
   <x:si>
     <x:t>Female</x:t>
@@ -97,52 +94,55 @@
     <x:t>True</x:t>
   </x:si>
   <x:si>
-    <x:t>7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Samuel Yagame</x:t>
+    <x:t>5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Red Maha</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0789698854</x:t>
   </x:si>
   <x:si>
     <x:t>Midrand</x:t>
   </x:si>
   <x:si>
-    <x:t>0115896696</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Arnold Yamcha</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cental Hospital</x:t>
-  </x:si>
-  <x:si>
-    <x:t>arnold@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0115859963</x:t>
-  </x:si>
-  <x:si>
-    <x:t>33</x:t>
-  </x:si>
-  <x:si>
-    <x:t>xcvb</x:t>
-  </x:si>
-  <x:si>
-    <x:t>40</x:t>
+    <x:t>Jack Jack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Midrand Clinic</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jack@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>01245457878</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15kl65</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25</x:t>
+  </x:si>
+  <x:si>
+    <x:t>36</x:t>
+  </x:si>
+  <x:si>
+    <x:t>No</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15/08/2017</x:t>
   </x:si>
   <x:si>
     <x:t>Yes</x:t>
   </x:si>
   <x:si>
-    <x:t>16/08/2017</x:t>
-  </x:si>
-  <x:si>
-    <x:t>No</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15bd33</x:t>
+    <x:t>599ebc272ac4220027ec0407</x:t>
+  </x:si>
+  <x:si>
+    <x:t>cxvzcvx</x:t>
   </x:si>
   <x:si>
     <x:t>5993427c78a9371e4c6c47a7</x:t>
@@ -163,12 +163,12 @@
     <x:t>Loco Moto</x:t>
   </x:si>
   <x:si>
+    <x:t>087066903634</x:t>
+  </x:si>
+  <x:si>
     <x:t>Braamfontein</x:t>
   </x:si>
   <x:si>
-    <x:t>087066903634</x:t>
-  </x:si>
-  <x:si>
     <x:t>Zoro Kokokoko</x:t>
   </x:si>
   <x:si>
@@ -181,18 +181,18 @@
     <x:t>0765854412</x:t>
   </x:si>
   <x:si>
+    <x:t>15rt66</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19</x:t>
+  </x:si>
+  <x:si>
     <x:t>35</x:t>
   </x:si>
   <x:si>
     <x:t>14/05/2016</x:t>
   </x:si>
   <x:si>
-    <x:t>19</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15rt66</x:t>
-  </x:si>
-  <x:si>
     <x:t>59935a546a299b12c0d39571</x:t>
   </x:si>
   <x:si>
@@ -211,12 +211,12 @@
     <x:t>Loko Moto</x:t>
   </x:si>
   <x:si>
+    <x:t>011058669</x:t>
+  </x:si>
+  <x:si>
     <x:t>Joburg</x:t>
   </x:si>
   <x:si>
-    <x:t>011058669</x:t>
-  </x:si>
-  <x:si>
     <x:t>Iyu Maye</x:t>
   </x:si>
   <x:si>
@@ -229,52 +229,10 @@
     <x:t>0745589999</x:t>
   </x:si>
   <x:si>
-    <x:t>36</x:t>
+    <x:t>15op36</x:t>
   </x:si>
   <x:si>
     <x:t>18/06/2017</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15op36</x:t>
-  </x:si>
-  <x:si>
-    <x:t>59935aec6a299b12c0d39572</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Star Fire</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17/12/2004</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Red Maha</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0789698854</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jack Jack</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Midrand Clinic</x:t>
-  </x:si>
-  <x:si>
-    <x:t>jack@gmail.com</x:t>
-  </x:si>
-  <x:si>
-    <x:t>01245457878</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15/08/2017</x:t>
-  </x:si>
-  <x:si>
-    <x:t>15kl65</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -637,7 +595,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:22">
+    <x:row r="1" spans="1:21">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -701,270 +659,207 @@
       <x:c r="U1" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="V1" s="0" t="s">
+    </x:row>
+    <x:row r="2" spans="1:21">
+      <x:c r="A2" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="I2" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="J2" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="K2" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="L2" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="M2" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="N2" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="O2" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="P2" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="Q2" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="R2" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="S2" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="T2" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="U2" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
     </x:row>
-    <x:row r="2" spans="1:22">
-      <x:c r="A2" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="B2" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="C2" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="D2" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="E2" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="F2" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="G2" s="0" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="H2" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="I2" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="J2" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="K2" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="L2" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="M2" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="N2" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="O2" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="P2" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="Q2" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="R2" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="S2" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="T2" s="0" t="s">
+    <x:row r="3" spans="1:21">
+      <x:c r="A3" s="0" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="U2" s="0" t="s">
+      <x:c r="B3" s="0" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="V2" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
     </x:row>
-    <x:row r="3" spans="1:22">
-      <x:c r="A3" s="0" t="s">
+    <x:row r="4" spans="1:21">
+      <x:c r="A4" s="0" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="B3" s="0" t="s">
+      <x:c r="B4" s="0" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="C3" s="0" t="s">
+      <x:c r="C4" s="0" t="s">
         <x:v>45</x:v>
-      </x:c>
-      <x:c r="D3" s="0" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="E3" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="F3" s="0" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="G3" s="0" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="H3" s="0" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="I3" s="0" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="J3" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="K3" s="0" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="L3" s="0" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="M3" s="0" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="N3" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="P3" s="0" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="Q3" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="R3" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="S3" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="T3" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="U3" s="0" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="V3" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:22">
-      <x:c r="A4" s="0" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="C4" s="0" t="s">
-        <x:v>61</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
         <x:v>46</x:v>
       </x:c>
       <x:c r="E4" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F4" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="I4" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="J4" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="K4" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="L4" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="M4" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="N4" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="O4" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="P4" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="Q4" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="R4" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="S4" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="T4" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="U4" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:21">
+      <x:c r="A5" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="F4" s="0" t="s">
+      <x:c r="F5" s="0" t="s">
         <x:v>63</x:v>
       </x:c>
-      <x:c r="G4" s="0" t="s">
+      <x:c r="G5" s="0" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="H4" s="0" t="s">
+      <x:c r="H5" s="0" t="s">
         <x:v>65</x:v>
       </x:c>
-      <x:c r="I4" s="0" t="s">
+      <x:c r="I5" s="0" t="s">
         <x:v>66</x:v>
       </x:c>
-      <x:c r="J4" s="0" t="s">
+      <x:c r="J5" s="0" t="s">
         <x:v>67</x:v>
       </x:c>
-      <x:c r="K4" s="0" t="s">
+      <x:c r="K5" s="0" t="s">
         <x:v>68</x:v>
       </x:c>
-      <x:c r="L4" s="0" t="s">
+      <x:c r="L5" s="0" t="s">
         <x:v>69</x:v>
       </x:c>
-      <x:c r="M4" s="0" t="s">
+      <x:c r="M5" s="0" t="s">
         <x:v>70</x:v>
       </x:c>
-      <x:c r="N4" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="P4" s="0" t="s">
+      <x:c r="N5" s="0" t="s">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="Q4" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="R4" s="0" t="s">
+      <x:c r="O5" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="P5" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="Q5" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="R5" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="S5" s="0" t="s">
         <x:v>72</x:v>
       </x:c>
-      <x:c r="S4" s="0" t="s">
+      <x:c r="T5" s="0" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="T4" s="0" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="U4" s="0" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="V4" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:22">
-      <x:c r="A5" s="0" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="E5" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="F5" s="0" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="G5" s="0" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="H5" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="I5" s="0" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="J5" s="0" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="K5" s="0" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="L5" s="0" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="M5" s="0" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="N5" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="P5" s="0" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="Q5" s="0" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="R5" s="0" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="S5" s="0" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="T5" s="0" t="s">
-        <x:v>73</x:v>
-      </x:c>
       <x:c r="U5" s="0" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="V5" s="0" t="s">
         <x:v>38</x:v>
       </x:c>
     </x:row>
